--- a/branches/vl-suppression_fig-13_fig-24_fig-33/StructureDefinition-death.xlsx
+++ b/branches/vl-suppression_fig-13_fig-24_fig-33/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T14:59:12+00:00</t>
+    <t>2023-02-08T15:01:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/vl-suppression_fig-13_fig-24_fig-33/StructureDefinition-death.xlsx
+++ b/branches/vl-suppression_fig-13_fig-24_fig-33/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T15:01:20+00:00</t>
+    <t>2023-02-09T09:47:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3973,7 +3973,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>92</v>

--- a/branches/vl-suppression_fig-13_fig-24_fig-33/StructureDefinition-death.xlsx
+++ b/branches/vl-suppression_fig-13_fig-24_fig-33/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T09:47:00+00:00</t>
+    <t>2023-02-09T09:48:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/vl-suppression_fig-13_fig-24_fig-33/StructureDefinition-death.xlsx
+++ b/branches/vl-suppression_fig-13_fig-24_fig-33/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T09:48:14+00:00</t>
+    <t>2023-02-09T12:01:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/vl-suppression_fig-13_fig-24_fig-33/StructureDefinition-death.xlsx
+++ b/branches/vl-suppression_fig-13_fig-24_fig-33/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T12:01:57+00:00</t>
+    <t>2023-02-09T12:02:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/vl-suppression_fig-13_fig-24_fig-33/StructureDefinition-death.xlsx
+++ b/branches/vl-suppression_fig-13_fig-24_fig-33/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T12:02:42+00:00</t>
+    <t>2023-02-13T07:29:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4948,7 +4948,7 @@
         <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>82</v>

--- a/branches/vl-suppression_fig-13_fig-24_fig-33/StructureDefinition-death.xlsx
+++ b/branches/vl-suppression_fig-13_fig-24_fig-33/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T07:29:47+00:00</t>
+    <t>2023-02-13T07:44:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/vl-suppression_fig-13_fig-24_fig-33/StructureDefinition-death.xlsx
+++ b/branches/vl-suppression_fig-13_fig-24_fig-33/StructureDefinition-death.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T07:44:02+00:00</t>
+    <t>2023-02-13T07:45:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
